--- a/financial_files/excel/CIOXY.xlsx
+++ b/financial_files/excel/CIOXY.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data_scraped" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financial_data" displayName="financial_data" ref="A1:O109" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financial_data" displayName="financial_data_scraped" ref="A1:O109" headerRowCount="1">
   <autoFilter ref="A1:O109"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Category"/>

--- a/financial_files/excel/CIOXY.xlsx
+++ b/financial_files/excel/CIOXY.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data_scraped" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_statement_api" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="rule1_results" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -156,6 +158,41 @@
     <tableColumn id="13" name="2018"/>
     <tableColumn id="14" name="2019"/>
     <tableColumn id="15" name="TTM"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="financial_statement_api" displayName="financial_statement_api" ref="A1:O23" headerRowCount="1">
+  <autoFilter ref="A1:O23"/>
+  <tableColumns count="15">
+    <tableColumn id="1" name="API Parameter"/>
+    <tableColumn id="2" name="2006"/>
+    <tableColumn id="3" name="2007"/>
+    <tableColumn id="4" name="2008"/>
+    <tableColumn id="5" name="2009"/>
+    <tableColumn id="6" name="2010"/>
+    <tableColumn id="7" name="2011"/>
+    <tableColumn id="8" name="2012"/>
+    <tableColumn id="9" name="2013"/>
+    <tableColumn id="10" name="2014"/>
+    <tableColumn id="11" name="2015"/>
+    <tableColumn id="12" name="2016"/>
+    <tableColumn id="13" name="2017"/>
+    <tableColumn id="14" name="2018"/>
+    <tableColumn id="15" name="2019"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="rule1_results" displayName="rule1_results" ref="A1:B55" headerRowCount="1">
+  <autoFilter ref="A1:B55"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Rule #1 Metric"/>
+    <tableColumn id="2" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6479,4 +6516,1826 @@
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>API Parameter</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>revenue</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>905705000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1345631000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1147121000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1967627000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2354759000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2288470000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2592179000</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2869175000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2924251000</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2865985000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3667497000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3520589000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3009177000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2764601000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>operating_income</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>420650000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>715458000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>810111000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1201210000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1398184000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1187115000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1355058000</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1382961000</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1297802000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1131161000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1370555000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1310756000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>948593000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>473860000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pretax_income</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>460687000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>757554000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>856811000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1331447000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1619017000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1480999000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1697571000</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1720701000</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1819852000</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1400441000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1795103000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1846983000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1199239000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>614263000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>income_tax</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-154335000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-262407000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-296540000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-455394000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-539150000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-493062000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-574987000</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-578578000</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-597651000</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-459544000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-547788000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-552710000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-334629000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-179159000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>eps_diluted</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>shares_diluted</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2714780000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2714780000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2714780000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2715977000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2711010000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2712576000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2714439000</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2639795000</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2716655000</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2715302000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2715015000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2715703000</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2716930000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2716614000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>total_assets</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>924332000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1147621000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1057245000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1695126000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2224362000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2760280000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4826719000</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5671076000</v>
+      </c>
+      <c r="J8" t="n">
+        <v>7070545000</v>
+      </c>
+      <c r="K8" t="n">
+        <v>7724645000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>9106759000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>26812498000</v>
+      </c>
+      <c r="N8" t="n">
+        <v>20885753000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>22388172000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>st_debt</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>79123000</v>
+      </c>
+      <c r="C9" t="n">
+        <v>83431000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>86809000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10693000</v>
+      </c>
+      <c r="H9" t="n">
+        <v>79442000</v>
+      </c>
+      <c r="I9" t="n">
+        <v>116361000</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1829593000</v>
+      </c>
+      <c r="K9" t="n">
+        <v>848080000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>870901000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>858185000</v>
+      </c>
+      <c r="N9" t="n">
+        <v>266163000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>223739000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>lt_debt</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>290289000</v>
+      </c>
+      <c r="C10" t="n">
+        <v>205868000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>115638000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>71329000</v>
+      </c>
+      <c r="H10" t="n">
+        <v>938194000</v>
+      </c>
+      <c r="I10" t="n">
+        <v>943878000</v>
+      </c>
+      <c r="J10" t="n">
+        <v>948613000</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2578918000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2346484000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1947689000</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1758603000</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2028822000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>total_equity</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>48083000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>342270000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>293081000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>491449000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>704365000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>774598000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1161570000</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1419573000</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1636852000</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2619039000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3847045000</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4661895000</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3355378000</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3201286000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>cf_cfo</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>413832000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>647492000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>373701000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>555567000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>918304000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>970897000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>599886000</v>
+      </c>
+      <c r="I12" t="n">
+        <v>851883000</v>
+      </c>
+      <c r="J12" t="n">
+        <v>712131000</v>
+      </c>
+      <c r="K12" t="n">
+        <v>732570000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1529339000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1675336000</v>
+      </c>
+      <c r="N12" t="n">
+        <v>946205000</v>
+      </c>
+      <c r="O12" t="n">
+        <v>471610000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>cfi_ppe_net</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-71448000</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-110578000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-65969000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-132054000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-170274000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-148747000</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-17617000</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-164171000</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-254887000</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-2205475000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-157042000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-143313000</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-165818000</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-275713000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>roic</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9743000000000001</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.6894</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.2483</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.059</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.5599</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.8310999999999999</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.5306</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.1702</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.1744</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.1247</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.0615</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>revenue_growth</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4857</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.1475</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7151999999999999</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.1967</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.0281</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.1327</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1068</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0191</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.0199</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.2796</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.1452</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-0.08119999999999999</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>eps_diluted_growth</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.6106</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.1318</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5631</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.08790000000000001</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.1349</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.0485</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0393</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.2583</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.3213</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.0295</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.3421</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-0.5234</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>total_equity_growth</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6.1183</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.1437</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6768</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.4332</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0997</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.4995</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.2221</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.4688</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.2118</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.2802</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-0.0459</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>cfo_growth</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.5646</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.4228</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.4866</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.6529</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0572</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.3821</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.164</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0287</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.0876</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.0954</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.4352</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-0.5014999999999999</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>fcf_growth</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.5681</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.4268</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.3762</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.7662</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.2917</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-0.3351</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-4.2212</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.9316</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.1163</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.4906</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-0.7489</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>fcf</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>342384000</v>
+      </c>
+      <c r="C20" t="n">
+        <v>536914000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>307732000</v>
+      </c>
+      <c r="E20" t="n">
+        <v>423513000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>748030000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>822150000</v>
+      </c>
+      <c r="H20" t="n">
+        <v>582269000</v>
+      </c>
+      <c r="I20" t="n">
+        <v>687712000</v>
+      </c>
+      <c r="J20" t="n">
+        <v>457244000</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-1472905000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1372297000</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1532023000</v>
+      </c>
+      <c r="N20" t="n">
+        <v>780387000</v>
+      </c>
+      <c r="O20" t="n">
+        <v>195897000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>book_value_per_share</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.0177</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.1079</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.1809</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.2598</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.2855</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.4279</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.5377</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.6025</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.9645</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.4169</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.7166</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.2349</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.1784</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>market_cap</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>11643325000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>14118735300</v>
+      </c>
+      <c r="H22" t="n">
+        <v>18888048000</v>
+      </c>
+      <c r="I22" t="n">
+        <v>21986397000</v>
+      </c>
+      <c r="J22" t="n">
+        <v>24523608000</v>
+      </c>
+      <c r="K22" t="n">
+        <v>15635776800</v>
+      </c>
+      <c r="L22" t="n">
+        <v>19280329200</v>
+      </c>
+      <c r="M22" t="n">
+        <v>19324890400</v>
+      </c>
+      <c r="N22" t="n">
+        <v>6351298200</v>
+      </c>
+      <c r="O22" t="n">
+        <v>5417240000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>price_to_earnings</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>10.7914</v>
+      </c>
+      <c r="G23" t="n">
+        <v>14.3431</v>
+      </c>
+      <c r="H23" t="n">
+        <v>16.8689</v>
+      </c>
+      <c r="I23" t="n">
+        <v>19.3014</v>
+      </c>
+      <c r="J23" t="n">
+        <v>20.1217</v>
+      </c>
+      <c r="K23" t="n">
+        <v>17.2804</v>
+      </c>
+      <c r="L23" t="n">
+        <v>16.1445</v>
+      </c>
+      <c r="M23" t="n">
+        <v>15.6987</v>
+      </c>
+      <c r="N23" t="n">
+        <v>7.8547</v>
+      </c>
+      <c r="O23" t="n">
+        <v>14.0714</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Rule #1 Metric</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ROIC - 10-year</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>37.99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ROIC - 5-year</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>11.44%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ROIC - 3-year</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>10.39%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ROIC - 1-year</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>6.15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 10-year</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>61.68%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 5-year</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>14.40%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 3-year</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>12.02%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 1-year</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>6.15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>20.61%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>14.36%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>-5.96%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>-4.58%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>-7.93%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>-20.47%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>-31.73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>-51.72%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>3.46%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>-1.12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>-8.99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>-8.13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>-7.42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>-15.59%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>-47.74%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>-74.90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>-1.63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>-7.91%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>-32.44%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>-50.16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Debt - Current Long-Term Debt</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2028822000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Debt - Payoff Possible</t>
+        </is>
+      </c>
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>current_eps</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.3549999924165556</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>analyst_growth_rate</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>equity_growth_rate</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.06108649752130604</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>eps_growth_rate</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>future_eps</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.3549999924165556</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>average_historical_pe</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>15.24762</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>default_pe</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>future_pe</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>future_market_price</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>sticker_price</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>margin_of_safety</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>shortName</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CIELO SA</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CIOXY</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>currency</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>market</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>us_market</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>exchange</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>PNK</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>sector</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>industry</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Software—Infrastructure</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>website</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>http://www.cielo.com.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>marketCap</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1873241472</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>428652</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>forwardPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>previousClose</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.8328</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>